--- a/Jogos_do_Dia/2023-10-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -626,13 +626,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.45</v>
@@ -653,10 +653,10 @@
         <v>2.95</v>
       </c>
       <c r="S2" t="n">
-        <v>2.03</v>
+        <v>2.41</v>
       </c>
       <c r="T2" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.87</v>
@@ -726,13 +726,13 @@
         <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="K3" t="n">
         <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.48</v>
@@ -753,10 +753,10 @@
         <v>2.8</v>
       </c>
       <c r="S3" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="T3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
         <v>1.9</v>
@@ -826,13 +826,13 @@
         <v>3.92</v>
       </c>
       <c r="J4" t="n">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
       <c r="K4" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>2.55</v>
+        <v>2.97</v>
       </c>
       <c r="M4" t="n">
         <v>1.52</v>
@@ -853,10 +853,10 @@
         <v>2.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="T4" t="n">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="U4" t="n">
         <v>2.01</v>
@@ -926,13 +926,13 @@
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.5</v>
@@ -953,7 +953,7 @@
         <v>2.8</v>
       </c>
       <c r="S5" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="T5" t="n">
         <v>1.58</v>
@@ -1126,13 +1126,13 @@
         <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.62</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="M7" t="n">
         <v>1.29</v>
@@ -1153,10 +1153,10 @@
         <v>4.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="T7" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="U7" t="n">
         <v>1.5</v>
@@ -1226,13 +1226,13 @@
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="K8" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>5.3</v>
+        <v>4.51</v>
       </c>
       <c r="M8" t="n">
         <v>1.5</v>
@@ -1253,10 +1253,10 @@
         <v>2.68</v>
       </c>
       <c r="S8" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="T8" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
         <v>2.05</v>
@@ -1308,85 +1308,85 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jönköpings Södra</t>
+          <t>Brage</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Östersunds FK</t>
+          <t>Skövde AIK</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.08</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y9" t="n">
         <v>2.25</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P9" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.49</v>
-      </c>
       <c r="Z9" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.17</v>
+        <v>0.33</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="10">
@@ -1408,85 +1408,85 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Brage</t>
+          <t>Utsikten</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skövde AIK</t>
+          <t>AFC Eskilstuna</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="H10" t="n">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>4.32</v>
       </c>
       <c r="J10" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="O10" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="R10" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="T10" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U10" t="n">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="W10" t="n">
         <v>1.18</v>
       </c>
       <c r="X10" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.92</v>
+        <v>2.17</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.91</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="11">
@@ -1526,13 +1526,13 @@
         <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="M11" t="n">
         <v>1.33</v>
@@ -1553,10 +1553,10 @@
         <v>3.95</v>
       </c>
       <c r="S11" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="U11" t="n">
         <v>1.57</v>
@@ -1592,7 +1592,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1604,95 +1604,95 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Utsikten</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AFC Eskilstuna</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.46</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
         <v>2.19</v>
       </c>
-      <c r="I12" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.81</v>
-      </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="W12" t="n">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="X12" t="n">
         <v>1.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.98</v>
+        <v>1.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.17</v>
+        <v>2.67</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1708,91 +1708,91 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>6.11</v>
+        <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.57</v>
+        <v>2.65</v>
       </c>
       <c r="M13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="N13" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P13" t="n">
-        <v>10</v>
+        <v>10.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="R13" t="n">
-        <v>3.5</v>
+        <v>3.61</v>
       </c>
       <c r="S13" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="W13" t="n">
-        <v>2.5</v>
+        <v>1.52</v>
       </c>
       <c r="X13" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.11</v>
+        <v>1.53</v>
       </c>
       <c r="Z13" t="n">
         <v>2.33</v>
       </c>
       <c r="AA13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.71</v>
+        <v>1.23</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.13</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>FC Penafiel</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>CD Nacional</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1823,76 +1823,76 @@
         <v>2.05</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="M14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N14" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P14" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W14" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="X14" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Z14" t="n">
         <v>2</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -1904,95 +1904,95 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>OFI</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>6</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>FC Penafiel</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>CD Nacional</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.8</v>
-      </c>
       <c r="H15" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="I15" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.16</v>
+        <v>6.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="M15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N15" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P15" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="R15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA15" t="n">
         <v>3</v>
       </c>
-      <c r="S15" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AB15" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.94</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sweden Allsvenskan</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2008,91 +2008,91 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Jönköpings Södra</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Östersunds FK</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>3.08</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>2.98</v>
       </c>
       <c r="J16" t="n">
-        <v>1.14</v>
+        <v>2.66</v>
       </c>
       <c r="K16" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>13.9</v>
+        <v>2.35</v>
       </c>
       <c r="M16" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="N16" t="n">
-        <v>4.5</v>
+        <v>3.28</v>
       </c>
       <c r="O16" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P16" t="n">
-        <v>29</v>
+        <v>14.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="R16" t="n">
-        <v>7.5</v>
+        <v>4.18</v>
       </c>
       <c r="S16" t="n">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>1.94</v>
       </c>
       <c r="U16" t="n">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="X16" t="n">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.5</v>
+        <v>1.49</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.87</v>
+        <v>1.38</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AD16" t="n">
-        <v>3.23</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2104,89 +2104,89 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.25</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.54</v>
-      </c>
       <c r="L17" t="n">
-        <v>2.67</v>
+        <v>3.1</v>
       </c>
       <c r="M17" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O17" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="P17" t="n">
-        <v>10.65</v>
+        <v>7.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="R17" t="n">
-        <v>3.61</v>
+        <v>3.05</v>
       </c>
       <c r="S17" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="T17" t="n">
-        <v>2.09</v>
+        <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="V17" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="W17" t="n">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="X17" t="n">
         <v>1.35</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.5</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="18">
@@ -2226,13 +2226,13 @@
         <v>3.25</v>
       </c>
       <c r="J18" t="n">
-        <v>2.42</v>
+        <v>2.51</v>
       </c>
       <c r="K18" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>2.92</v>
+        <v>2.58</v>
       </c>
       <c r="M18" t="n">
         <v>1.4</v>
@@ -2253,10 +2253,10 @@
         <v>3.5</v>
       </c>
       <c r="S18" t="n">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="T18" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
         <v>1.7</v>
@@ -2292,7 +2292,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Sweden Allsvenskan</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2304,89 +2304,89 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>2.94</v>
+        <v>1.14</v>
       </c>
       <c r="K19" t="n">
-        <v>3.05</v>
+        <v>7.9</v>
       </c>
       <c r="L19" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P19" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z19" t="n">
         <v>2.17</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="AA19" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC19" t="n">
         <v>1.36</v>
       </c>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1.44</v>
-      </c>
       <c r="AD19" t="n">
-        <v>2.9</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="20">
@@ -2426,13 +2426,13 @@
         <v>7.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>5.65</v>
       </c>
       <c r="L20" t="n">
-        <v>8.5</v>
+        <v>7.89</v>
       </c>
       <c r="M20" t="n">
         <v>1.22</v>
@@ -2453,10 +2453,10 @@
         <v>6.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.6</v>
+        <v>2.73</v>
       </c>
       <c r="U20" t="n">
         <v>1.75</v>
@@ -2526,13 +2526,13 @@
         <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>4.99</v>
+        <v>5.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.35</v>
@@ -2553,10 +2553,10 @@
         <v>3.7</v>
       </c>
       <c r="S21" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="T21" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="U21" t="n">
         <v>1.97</v>
@@ -2680,13 +2680,13 @@
         <v>1.67</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AC22" t="n">
         <v>1.14</v>
       </c>
       <c r="AD22" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="23">
@@ -2826,13 +2826,13 @@
         <v>3.75</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>3.12</v>
+        <v>3.28</v>
       </c>
       <c r="M24" t="n">
         <v>1.52</v>
@@ -2853,10 +2853,10 @@
         <v>2.65</v>
       </c>
       <c r="S24" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="T24" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U24" t="n">
         <v>2</v>
@@ -2926,13 +2926,13 @@
         <v>6.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="K25" t="n">
-        <v>4.58</v>
+        <v>4.35</v>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M25" t="n">
         <v>1.36</v>
@@ -2956,7 +2956,7 @@
         <v>1.77</v>
       </c>
       <c r="T25" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="U25" t="n">
         <v>2</v>
@@ -2992,7 +2992,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -3004,89 +3004,89 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>RCD Espanyol</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Racing Club de Ferrol</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
         <v>2.2</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.25</v>
-      </c>
       <c r="I26" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="J26" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.75</v>
       </c>
-      <c r="K26" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V26" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
-        <v>1.11</v>
+        <v>1.82</v>
       </c>
       <c r="X26" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.05</v>
+        <v>1.31</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.75</v>
+        <v>1.08</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.88</v>
+        <v>1.83</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.63</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="27">
@@ -3126,13 +3126,13 @@
         <v>3.75</v>
       </c>
       <c r="J27" t="n">
-        <v>2.69</v>
+        <v>2.53</v>
       </c>
       <c r="K27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L27" t="n">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="M27" t="n">
         <v>1.5</v>
@@ -3153,10 +3153,10 @@
         <v>2.85</v>
       </c>
       <c r="S27" t="n">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="T27" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="U27" t="n">
         <v>1.95</v>
@@ -3192,7 +3192,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -3204,95 +3204,95 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>RCD Espanyol</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Racing Club de Ferrol</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AD28" t="n">
         <v>2.63</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P28" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>2.91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Iceland Úrvalsdeild</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3304,89 +3304,89 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Víkingur Reykjavík</t>
+          <t>CF Os Belenenses</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
-        <v>2.47</v>
+        <v>2.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.89</v>
+        <v>1.65</v>
       </c>
       <c r="K29" t="n">
-        <v>3.94</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>2.18</v>
+        <v>4.69</v>
       </c>
       <c r="M29" t="n">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="N29" t="n">
-        <v>3.92</v>
+        <v>2.63</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P29" t="n">
-        <v>16.5</v>
+        <v>8</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="R29" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>1.42</v>
+        <v>1.96</v>
       </c>
       <c r="T29" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U29" t="n">
-        <v>1.4</v>
+        <v>1.91</v>
       </c>
       <c r="V29" t="n">
-        <v>2.81</v>
+        <v>1.8</v>
       </c>
       <c r="W29" t="n">
-        <v>1.68</v>
+        <v>1.17</v>
       </c>
       <c r="X29" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.42</v>
+        <v>1.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AD29" t="n">
-        <v>3.51</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="30">
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="K30" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L30" t="n">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3453,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T30" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Iceland Úrvalsdeild</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -3504,89 +3504,89 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Víkingur Reykjavík</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="I31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R31" t="n">
         <v>5.5</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="M31" t="n">
+      <c r="S31" t="n">
         <v>1.43</v>
       </c>
-      <c r="N31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P31" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2</v>
-      </c>
       <c r="T31" t="n">
-        <v>1.67</v>
+        <v>2.54</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="V31" t="n">
-        <v>1.8</v>
+        <v>2.81</v>
       </c>
       <c r="W31" t="n">
-        <v>1.17</v>
+        <v>1.68</v>
       </c>
       <c r="X31" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.5</v>
+        <v>2.42</v>
       </c>
       <c r="AB31" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AD31" t="n">
-        <v>3.41</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="32">
@@ -3626,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="K32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
-        <v>4.35</v>
+        <v>3.82</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3653,10 +3653,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="T32" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3926,13 +3926,13 @@
         <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>2.22</v>
+        <v>1.97</v>
       </c>
       <c r="K35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L35" t="n">
-        <v>3.04</v>
+        <v>3.19</v>
       </c>
       <c r="M35" t="n">
         <v>1.4</v>
@@ -3953,10 +3953,10 @@
         <v>3.3</v>
       </c>
       <c r="S35" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T35" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="U35" t="n">
         <v>1.8</v>
@@ -4017,61 +4017,61 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>2.2</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="L36" t="n">
-        <v>6.67</v>
+        <v>6.34</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="S36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="U36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="Z36" t="n">
         <v>2.75</v>
@@ -4126,13 +4126,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="K37" t="n">
         <v>4.7</v>
       </c>
       <c r="L37" t="n">
-        <v>7.55</v>
+        <v>5.47</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T37" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4208,31 +4208,31 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Atlético Tucumán</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Central Córdoba SdE</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="H38" t="n">
         <v>1.91</v>
       </c>
       <c r="I38" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>1.83</v>
       </c>
       <c r="K38" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L38" t="n">
-        <v>2.38</v>
+        <v>4.2</v>
       </c>
       <c r="M38" t="n">
         <v>1.62</v>
@@ -4241,16 +4241,16 @@
         <v>2.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="P38" t="n">
-        <v>6.71</v>
+        <v>6.28</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R38" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="S38" t="n">
         <v>2.7</v>
@@ -4259,34 +4259,34 @@
         <v>1.44</v>
       </c>
       <c r="U38" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V38" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W38" t="n">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="X38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.36</v>
+        <v>1.95</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="AA38" t="n">
-        <v>1.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB38" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AD38" t="n">
-        <v>2.89</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="39">
@@ -4308,31 +4308,31 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Atlético Tucumán</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Central Córdoba SdE</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
         <v>1.91</v>
       </c>
       <c r="I39" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="J39" t="n">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L39" t="n">
-        <v>4.2</v>
+        <v>2.38</v>
       </c>
       <c r="M39" t="n">
         <v>1.62</v>
@@ -4341,16 +4341,16 @@
         <v>2.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P39" t="n">
-        <v>6.28</v>
+        <v>6.71</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="R39" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="S39" t="n">
         <v>2.7</v>
@@ -4359,34 +4359,34 @@
         <v>1.44</v>
       </c>
       <c r="U39" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V39" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W39" t="n">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="X39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="AB39" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="AD39" t="n">
-        <v>2.64</v>
+        <v>2.89</v>
       </c>
     </row>
   </sheetData>
